--- a/etc/283.xlsx
+++ b/etc/283.xlsx
@@ -1037,6 +1037,9 @@
     <t>КварплатаЛ/с:0000003115ПоповОлегВалерьевич (кв.31)пр-д Марьиной Рощи 17-й дом 1 (м.м), м/м А/м 115 за октябрь 2022 года                         НДС не облагается</t>
   </si>
   <si>
+    <t>3031</t>
+  </si>
+  <si>
     <t>40817810381364067461 773113301047 МУРАВЬЕВА ТАТЬЯНА МИХАЙЛОВНА // 121433 РОССИЯ Г МОСКВА УЛ МАЛАЯ ФИЛЁВСКАЯ ДОМ 6 КОРП 1 КВ 35 //</t>
   </si>
   <si>
@@ -1401,9 +1404,6 @@
   </si>
   <si>
     <t>КВАРПЛАТА, НДС НЕ ОБЛАГАЕТСЯ, (ЛСИ0000001128,ПРД09.2022)</t>
-  </si>
-  <si>
-    <t>3031</t>
   </si>
   <si>
     <t>40817810900047558470 503802369401 ДАВЫДОВ ВЯЧЕСЛАВ ВЛАДИМИРОВИЧ</t>
@@ -6426,9 +6426,6 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6442,6 +6439,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -8292,7 +8292,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s" s="3">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -8303,7 +8303,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17">
@@ -9554,7 +9554,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B5" s="30">
         <v>44735</v>
@@ -10300,7 +10300,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B2" s="25">
         <v>44709</v>
@@ -10315,7 +10315,7 @@
         <v>21689.6</v>
       </c>
       <c r="H2" t="s" s="27">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I2" t="s" s="27">
         <v>898</v>
@@ -10369,7 +10369,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B5" s="30">
         <v>44712</v>
@@ -10386,7 +10386,7 @@
       <c r="H5" t="s" s="32">
         <v>676</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G6" s="51">
         <v>2321.15</v>
@@ -10410,7 +10410,7 @@
         <v>218</v>
       </c>
       <c r="I6" t="s" s="32">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -10424,7 +10424,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G7" s="51">
         <v>4104.47</v>
@@ -10516,7 +10516,7 @@
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="41">
+      <c r="G11" s="40">
         <v>435.57</v>
       </c>
       <c r="H11" s="37"/>
@@ -10855,7 +10855,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G26" s="53">
         <v>2033</v>
@@ -10869,7 +10869,7 @@
     </row>
     <row r="27" ht="32.05" customHeight="1">
       <c r="A27" t="s" s="29">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B27" s="30">
         <v>44714</v>
@@ -10915,7 +10915,7 @@
     </row>
     <row r="29" ht="32.05" customHeight="1">
       <c r="A29" t="s" s="29">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B29" s="30">
         <v>44714</v>
@@ -10938,7 +10938,7 @@
     </row>
     <row r="30" ht="32.05" customHeight="1">
       <c r="A30" t="s" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B30" s="30">
         <v>44714</v>
@@ -11007,7 +11007,7 @@
     </row>
     <row r="33" ht="32.05" customHeight="1">
       <c r="A33" t="s" s="29">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B33" s="30">
         <v>44714</v>
@@ -11292,7 +11292,7 @@
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
       <c r="F45" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G45" s="51">
         <v>4367.54</v>
@@ -11748,7 +11748,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B10" s="30">
         <v>44701</v>
@@ -11826,7 +11826,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G13" s="33">
         <v>2487.72</v>
@@ -12079,7 +12079,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G24" s="33">
         <v>17088.67</v>
@@ -12093,7 +12093,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B25" s="30">
         <v>44708</v>
@@ -12108,7 +12108,7 @@
         <v>26217.14</v>
       </c>
       <c r="H25" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I25" t="s" s="32">
         <v>980</v>
@@ -12199,7 +12199,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="33">
         <v>2033</v>
@@ -12213,7 +12213,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B4" s="30">
         <v>44685</v>
@@ -12230,7 +12230,7 @@
       <c r="H4" t="s" s="32">
         <v>985</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -12259,7 +12259,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B6" s="30">
         <v>44685</v>
@@ -12274,7 +12274,7 @@
         <v>2253.97</v>
       </c>
       <c r="H6" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I6" t="s" s="32">
         <v>988</v>
@@ -12300,7 +12300,7 @@
         <v>218</v>
       </c>
       <c r="I7" t="s" s="32">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
@@ -12500,7 +12500,7 @@
       <c r="F16" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="40">
         <v>2487.72</v>
       </c>
       <c r="H16" t="s" s="38">
@@ -12523,7 +12523,7 @@
       <c r="F17" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="40">
         <v>12275.99</v>
       </c>
       <c r="H17" s="37"/>
@@ -12945,7 +12945,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="29">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B36" s="30">
         <v>44691</v>
@@ -12968,7 +12968,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B37" s="30">
         <v>44692</v>
@@ -12983,7 +12983,7 @@
         <v>4742.44</v>
       </c>
       <c r="H37" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I37" t="s" s="32">
         <v>1018</v>
@@ -13511,7 +13511,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G7" s="33">
         <v>2482.33</v>
@@ -13668,7 +13668,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B2" s="25">
         <v>44650</v>
@@ -13683,7 +13683,7 @@
         <v>2032.52</v>
       </c>
       <c r="H2" t="s" s="27">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I2" s="58">
         <v>3105</v>
@@ -13700,7 +13700,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="33">
         <v>2033</v>
@@ -13732,7 +13732,7 @@
         <v>218</v>
       </c>
       <c r="I4" t="s" s="32">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -13760,7 +13760,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B6" s="30">
         <v>44650</v>
@@ -13775,7 +13775,7 @@
         <v>5174.66</v>
       </c>
       <c r="H6" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I6" t="s" s="32">
         <v>1053</v>
@@ -14116,7 +14116,7 @@
       <c r="F21" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="44">
         <v>825.5</v>
       </c>
       <c r="H21" t="s" s="38">
@@ -14139,7 +14139,7 @@
       <c r="F22" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="44">
         <v>11808.81</v>
       </c>
       <c r="H22" t="s" s="38">
@@ -14151,7 +14151,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B23" s="30">
         <v>44652</v>
@@ -14166,7 +14166,7 @@
         <v>6737.12</v>
       </c>
       <c r="H23" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I23" t="s" s="32">
         <v>1073</v>
@@ -14505,7 +14505,7 @@
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G38" s="33">
         <v>7779.8</v>
@@ -14841,7 +14841,7 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B53" s="30">
         <v>44663</v>
@@ -14856,7 +14856,7 @@
         <v>23699.53</v>
       </c>
       <c r="H53" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I53" t="s" s="32">
         <v>1108</v>
@@ -14933,7 +14933,7 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="29">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B57" s="30">
         <v>44669</v>
@@ -14948,7 +14948,7 @@
         <v>6587.37</v>
       </c>
       <c r="H57" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I57" t="s" s="32">
         <v>1112</v>
@@ -14979,7 +14979,7 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="29">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B59" s="30">
         <v>44669</v>
@@ -14994,7 +14994,7 @@
         <v>7435.74</v>
       </c>
       <c r="H59" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I59" t="s" s="32">
         <v>1114</v>
@@ -15025,7 +15025,7 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="29">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B61" s="30">
         <v>44669</v>
@@ -15040,7 +15040,7 @@
         <v>24693.53</v>
       </c>
       <c r="H61" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I61" t="s" s="32">
         <v>1116</v>
@@ -15048,7 +15048,7 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B62" s="30">
         <v>44669</v>
@@ -15063,7 +15063,7 @@
         <v>25706.62</v>
       </c>
       <c r="H62" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I62" t="s" s="32">
         <v>1117</v>
@@ -15209,7 +15209,7 @@
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B69" s="30">
         <v>44671</v>
@@ -15628,7 +15628,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B11" s="30">
         <v>44640</v>
@@ -15959,7 +15959,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G25" s="51">
         <v>2466.57</v>
@@ -16097,7 +16097,7 @@
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="F31" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G31" s="51">
         <v>7119.67</v>
@@ -16217,7 +16217,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" t="s" s="27">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G2" s="28">
         <v>2020</v>
@@ -16240,7 +16240,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="33">
         <v>2486.84</v>
@@ -16286,7 +16286,7 @@
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G5" s="33">
         <v>4280.87</v>
@@ -16438,7 +16438,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B12" s="30">
         <v>44621</v>
@@ -16453,15 +16453,15 @@
         <v>2019.61</v>
       </c>
       <c r="H12" t="s" s="32">
-        <v>432</v>
-      </c>
-      <c r="I12" s="41">
+        <v>433</v>
+      </c>
+      <c r="I12" s="40">
         <v>3105</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B13" s="30">
         <v>44621</v>
@@ -16541,7 +16541,7 @@
       <c r="F16" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="44">
         <v>14219.67</v>
       </c>
       <c r="H16" t="s" s="38">
@@ -17312,7 +17312,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="29">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B50" s="30">
         <v>44629</v>
@@ -17327,7 +17327,7 @@
         <v>8000</v>
       </c>
       <c r="H50" t="s" s="32">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I50" t="s" s="32">
         <v>1214</v>
@@ -17413,7 +17413,7 @@
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
       <c r="F54" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G54" s="33">
         <v>4280.87</v>
@@ -17800,7 +17800,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B7" s="30">
         <v>44606</v>
@@ -18053,7 +18053,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B18" s="30">
         <v>44613</v>
@@ -19003,7 +19003,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" t="s" s="27">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G2" s="50">
         <v>2025</v>
@@ -19017,7 +19017,7 @@
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B3" s="30">
         <v>44593</v>
@@ -19032,9 +19032,9 @@
         <v>2036.21</v>
       </c>
       <c r="H3" t="s" s="32">
-        <v>432</v>
-      </c>
-      <c r="I3" s="41">
+        <v>433</v>
+      </c>
+      <c r="I3" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -19201,7 +19201,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="29">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B11" s="30">
         <v>44593</v>
@@ -19233,7 +19233,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G12" s="51">
         <v>4044.48</v>
@@ -19396,7 +19396,7 @@
       <c r="F19" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="40">
         <v>2486.84</v>
       </c>
       <c r="H19" t="s" s="38">
@@ -19419,7 +19419,7 @@
       <c r="F20" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <v>12170.96</v>
       </c>
       <c r="H20" t="s" s="38">
@@ -19799,7 +19799,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="29">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B37" s="30">
         <v>44597</v>
@@ -19814,7 +19814,7 @@
         <v>9000</v>
       </c>
       <c r="H37" t="s" s="32">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I37" t="s" s="32">
         <v>1298</v>
@@ -19960,7 +19960,7 @@
     </row>
     <row r="44" ht="32.05" customHeight="1">
       <c r="A44" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B44" s="30">
         <v>44600</v>
@@ -19975,7 +19975,7 @@
         <v>24719.81</v>
       </c>
       <c r="H44" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I44" t="s" s="32">
         <v>1305</v>
@@ -20310,7 +20310,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B5" s="30">
         <v>44576</v>
@@ -20325,7 +20325,7 @@
         <v>2234.2</v>
       </c>
       <c r="H5" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I5" t="s" s="32">
         <v>1320</v>
@@ -20425,7 +20425,7 @@
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B10" s="30">
         <v>44578</v>
@@ -20440,7 +20440,7 @@
         <v>25588.75</v>
       </c>
       <c r="H10" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I10" t="s" s="32">
         <v>1325</v>
@@ -20586,7 +20586,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B17" s="30">
         <v>44581</v>
@@ -20871,7 +20871,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
       <c r="F29" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G29" s="33">
         <v>6637.13</v>
@@ -21005,7 +21005,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B2" s="25">
         <v>44558</v>
@@ -21020,7 +21020,7 @@
         <v>68.54000000000001</v>
       </c>
       <c r="H2" t="s" s="27">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I2" s="58">
         <v>3105</v>
@@ -21037,7 +21037,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="65">
         <v>2025</v>
@@ -21060,7 +21060,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G4" s="33">
         <v>2421.88</v>
@@ -21129,7 +21129,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G7" s="33">
         <v>2465.89</v>
@@ -21221,7 +21221,7 @@
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
       <c r="F11" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G11" s="33">
         <v>7550.76</v>
@@ -21453,7 +21453,7 @@
       <c r="F21" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="44">
         <v>11329.6</v>
       </c>
       <c r="H21" t="s" s="38">
@@ -22063,7 +22063,7 @@
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="29">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B48" s="30">
         <v>44571</v>
@@ -22078,7 +22078,7 @@
         <v>4330.11</v>
       </c>
       <c r="H48" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I48" t="s" s="32">
         <v>1394</v>
@@ -22086,7 +22086,7 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="29">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B49" s="30">
         <v>44571</v>
@@ -22101,7 +22101,7 @@
         <v>4887.77</v>
       </c>
       <c r="H49" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I49" t="s" s="32">
         <v>1395</v>
@@ -22201,7 +22201,7 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="29">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B54" s="30">
         <v>44571</v>
@@ -22216,7 +22216,7 @@
         <v>15004.81</v>
       </c>
       <c r="H54" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I54" t="s" s="32">
         <v>1399</v>
@@ -22307,7 +22307,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" t="s" s="27">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G2" s="28">
         <v>1852.99</v>
@@ -22330,7 +22330,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="33">
         <v>2048.03</v>
@@ -22447,7 +22447,7 @@
       <c r="F8" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="44">
         <v>11531.9</v>
       </c>
       <c r="H8" t="s" s="38">
@@ -22470,7 +22470,7 @@
       <c r="F9" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="44">
         <v>1521.09</v>
       </c>
       <c r="H9" t="s" s="38">
@@ -22666,7 +22666,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B18" s="30">
         <v>44550</v>
@@ -23103,7 +23103,7 @@
     </row>
     <row r="37" ht="32.05" customHeight="1">
       <c r="A37" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B37" s="30">
         <v>44552</v>
@@ -23118,7 +23118,7 @@
         <v>25893.71</v>
       </c>
       <c r="H37" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I37" t="s" s="32">
         <v>1441</v>
@@ -23223,7 +23223,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B2" s="25">
         <v>44528</v>
@@ -23238,7 +23238,7 @@
         <v>8000</v>
       </c>
       <c r="H2" t="s" s="27">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I2" t="s" s="27">
         <v>1445</v>
@@ -23269,7 +23269,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B4" s="30">
         <v>44531</v>
@@ -23284,7 +23284,7 @@
         <v>2194.33</v>
       </c>
       <c r="H4" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s" s="32">
         <v>1447</v>
@@ -23361,7 +23361,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B8" s="30">
         <v>44531</v>
@@ -23376,9 +23376,9 @@
         <v>3933.52</v>
       </c>
       <c r="H8" t="s" s="32">
-        <v>432</v>
-      </c>
-      <c r="I8" s="41">
+        <v>433</v>
+      </c>
+      <c r="I8" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -23462,7 +23462,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G12" s="65">
         <v>2000</v>
@@ -24870,7 +24870,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G26" s="33">
         <v>7956.04</v>
@@ -24930,7 +24930,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B29" s="30">
         <v>44518</v>
@@ -24945,7 +24945,7 @@
         <v>4758.11</v>
       </c>
       <c r="H29" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I29" t="s" s="32">
         <v>1522</v>
@@ -25031,7 +25031,7 @@
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
       <c r="F33" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G33" s="33">
         <v>2382.17</v>
@@ -25344,7 +25344,7 @@
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B47" s="30">
         <v>44522</v>
@@ -25413,7 +25413,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="29">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B50" s="30">
         <v>44522</v>
@@ -25428,7 +25428,7 @@
         <v>6343.75</v>
       </c>
       <c r="H50" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I50" t="s" s="32">
         <v>1542</v>
@@ -25436,7 +25436,7 @@
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="29">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B51" s="30">
         <v>44522</v>
@@ -25451,7 +25451,7 @@
         <v>7160.74</v>
       </c>
       <c r="H51" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I51" t="s" s="32">
         <v>1543</v>
@@ -25505,7 +25505,7 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="29">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B54" s="30">
         <v>44522</v>
@@ -25520,7 +25520,7 @@
         <v>21163.18</v>
       </c>
       <c r="H54" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I54" t="s" s="32">
         <v>1546</v>
@@ -25579,7 +25579,7 @@
     </row>
     <row r="2" ht="32.25" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B2" s="25">
         <v>44496</v>
@@ -25594,7 +25594,7 @@
         <v>26749.39</v>
       </c>
       <c r="H2" t="s" s="27">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I2" t="s" s="27">
         <v>1548</v>
@@ -25602,7 +25602,7 @@
     </row>
     <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B3" s="30">
         <v>44496</v>
@@ -25617,7 +25617,7 @@
         <v>28921.9</v>
       </c>
       <c r="H3" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I3" t="s" s="32">
         <v>1549</v>
@@ -25625,7 +25625,7 @@
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B4" s="30">
         <v>44496</v>
@@ -25640,7 +25640,7 @@
         <v>29038.24</v>
       </c>
       <c r="H4" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I4" t="s" s="32">
         <v>1550</v>
@@ -25648,7 +25648,7 @@
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B5" s="30">
         <v>44496</v>
@@ -25663,7 +25663,7 @@
         <v>30490.07</v>
       </c>
       <c r="H5" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I5" t="s" s="32">
         <v>1551</v>
@@ -25717,7 +25717,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="29">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B8" s="30">
         <v>44497</v>
@@ -25732,7 +25732,7 @@
         <v>10000</v>
       </c>
       <c r="H8" t="s" s="32">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I8" t="s" s="32">
         <v>1554</v>
@@ -25786,7 +25786,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="29">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B11" s="30">
         <v>44498</v>
@@ -25818,7 +25818,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G12" s="65">
         <v>1760</v>
@@ -25832,7 +25832,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B13" s="30">
         <v>44498</v>
@@ -25847,9 +25847,9 @@
         <v>1950.51</v>
       </c>
       <c r="H13" t="s" s="32">
-        <v>432</v>
-      </c>
-      <c r="I13" s="41">
+        <v>433</v>
+      </c>
+      <c r="I13" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -25864,7 +25864,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G14" s="33">
         <v>3905.41</v>
@@ -26591,7 +26591,7 @@
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" s="30">
         <v>44506</v>
@@ -26606,7 +26606,7 @@
         <v>2158.35</v>
       </c>
       <c r="H46" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I46" t="s" s="32">
         <v>1591</v>
@@ -26720,7 +26720,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" t="s" s="27">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G2" s="50">
         <v>2395.1</v>
@@ -26964,7 +26964,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B13" s="30">
         <v>44489</v>
@@ -27065,7 +27065,7 @@
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G17" s="53">
         <v>17000</v>
@@ -27484,7 +27484,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G13" s="65">
         <v>10761.1</v>
@@ -27618,7 +27618,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B2" s="25">
         <v>44470</v>
@@ -27880,7 +27880,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G13" s="65">
         <v>2050</v>
@@ -27917,7 +27917,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B15" s="30">
         <v>44473</v>
@@ -27932,7 +27932,7 @@
         <v>2170.07</v>
       </c>
       <c r="H15" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I15" t="s" s="32">
         <v>1649</v>
@@ -27949,7 +27949,7 @@
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G16" s="33">
         <v>2268.82</v>
@@ -27995,7 +27995,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G18" s="33">
         <v>2379.04</v>
@@ -28432,9 +28432,9 @@
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
       <c r="F37" t="s" s="38">
-        <v>421</v>
-      </c>
-      <c r="G37" s="39">
+        <v>422</v>
+      </c>
+      <c r="G37" s="44">
         <v>2203.79</v>
       </c>
       <c r="H37" t="s" s="38">
@@ -28480,7 +28480,7 @@
       <c r="F39" t="s" s="38">
         <v>113</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="44">
         <v>19392.37</v>
       </c>
       <c r="H39" t="s" s="38">
@@ -29721,7 +29721,7 @@
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B3" s="30">
         <v>44447</v>
@@ -29736,7 +29736,7 @@
         <v>2159.54</v>
       </c>
       <c r="H3" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I3" t="s" s="32">
         <v>1682</v>
@@ -29960,7 +29960,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
       <c r="F13" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G13" s="33">
         <v>2383.47</v>
@@ -30135,7 +30135,7 @@
     </row>
     <row r="21" ht="32.05" customHeight="1">
       <c r="A21" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B21" s="30">
         <v>44455</v>
@@ -30150,7 +30150,7 @@
         <v>25007.53</v>
       </c>
       <c r="H21" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I21" t="s" s="32">
         <v>1699</v>
@@ -30158,7 +30158,7 @@
     </row>
     <row r="22" ht="32.05" customHeight="1">
       <c r="A22" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B22" s="30">
         <v>44455</v>
@@ -30173,7 +30173,7 @@
         <v>25981.94</v>
       </c>
       <c r="H22" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I22" t="s" s="32">
         <v>1700</v>
@@ -30388,7 +30388,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="29">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B32" s="30">
         <v>44459</v>
@@ -30403,7 +30403,7 @@
         <v>7000</v>
       </c>
       <c r="H32" t="s" s="32">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I32" t="s" s="32">
         <v>1710</v>
@@ -30692,7 +30692,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B2" s="25">
         <v>44439</v>
@@ -30724,7 +30724,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="65">
         <v>2050</v>
@@ -30793,7 +30793,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G6" s="33">
         <v>2383.47</v>
@@ -30816,7 +30816,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G7" s="33">
         <v>2383.47</v>
@@ -30839,7 +30839,7 @@
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G8" s="33">
         <v>2383.47</v>
@@ -30862,7 +30862,7 @@
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
       <c r="F9" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G9" s="33">
         <v>4787.73</v>
@@ -30973,7 +30973,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
       <c r="F14" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G14" s="65">
         <v>120.9</v>
@@ -30987,7 +30987,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="29">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B15" s="30">
         <v>44440</v>
@@ -31010,7 +31010,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="29">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B16" s="30">
         <v>44440</v>
@@ -31341,7 +31341,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G30" s="33">
         <v>1951.57</v>
@@ -31355,7 +31355,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B31" s="30">
         <v>44445</v>
@@ -31372,7 +31372,7 @@
       <c r="H31" t="s" s="32">
         <v>676</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -31387,7 +31387,7 @@
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
       <c r="F32" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G32" s="33">
         <v>2040.38</v>
@@ -31737,7 +31737,7 @@
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G5" s="33">
         <v>1947.34</v>
@@ -31760,7 +31760,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G6" s="33">
         <v>1947.34</v>
@@ -31894,7 +31894,7 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B2" s="25">
         <v>44411</v>
@@ -31926,7 +31926,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="53">
         <v>2050</v>
@@ -31940,7 +31940,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B4" s="30">
         <v>44411</v>
@@ -31955,7 +31955,7 @@
         <v>2154.85</v>
       </c>
       <c r="H4" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s" s="32">
         <v>1764</v>
@@ -32110,7 +32110,7 @@
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
       <c r="F11" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G11" s="51">
         <v>2441.77</v>
@@ -32225,7 +32225,7 @@
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G16" s="51">
         <v>2441.77</v>
@@ -32248,7 +32248,7 @@
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G17" s="51">
         <v>2458.49</v>
@@ -32294,7 +32294,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G19" s="51">
         <v>12602.34</v>
@@ -32492,7 +32492,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="29">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B28" s="30">
         <v>44417</v>
@@ -32507,7 +32507,7 @@
         <v>4216.28</v>
       </c>
       <c r="H28" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I28" t="s" s="32">
         <v>1783</v>
@@ -32515,7 +32515,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="29">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B29" s="30">
         <v>44417</v>
@@ -32530,7 +32530,7 @@
         <v>4759.3</v>
       </c>
       <c r="H29" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I29" t="s" s="32">
         <v>1784</v>
@@ -32630,7 +32630,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="29">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B34" s="30">
         <v>44417</v>
@@ -32645,7 +32645,7 @@
         <v>16618.1</v>
       </c>
       <c r="H34" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I34" t="s" s="32">
         <v>1789</v>
@@ -32708,7 +32708,7 @@
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G37" s="51">
         <v>2040.38</v>
@@ -32731,7 +32731,7 @@
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G38" s="51">
         <v>2491.94</v>
@@ -32754,7 +32754,7 @@
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G39" s="51">
         <v>2491.94</v>
@@ -32777,7 +32777,7 @@
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G40" s="51">
         <v>2491.94</v>
@@ -32998,7 +32998,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="29">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B50" s="30">
         <v>44424</v>
@@ -33168,7 +33168,7 @@
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
       <c r="F57" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G57" s="51">
         <v>8108.58</v>
@@ -33306,7 +33306,7 @@
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
       <c r="F63" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G63" s="51">
         <v>2491.94</v>
@@ -33320,7 +33320,7 @@
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B64" s="30">
         <v>44427</v>
@@ -33449,7 +33449,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="51">
         <v>4827.23</v>
@@ -33639,7 +33639,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="100">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B9" s="101">
         <v>44309</v>
@@ -33687,7 +33687,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="100">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B12" s="101">
         <v>44309</v>
@@ -33767,7 +33767,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="100">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B17" s="101">
         <v>44309</v>
@@ -33923,7 +33923,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" t="s" s="27">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G2" s="50">
         <v>5000</v>
@@ -33946,7 +33946,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="51">
         <v>1949.53</v>
@@ -33983,7 +33983,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="29">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B5" s="30">
         <v>44403</v>
@@ -34080,7 +34080,7 @@
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B3" s="30">
         <v>44396</v>
@@ -34095,7 +34095,7 @@
         <v>4482.9</v>
       </c>
       <c r="H3" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I3" t="s" s="32">
         <v>1839</v>
@@ -34103,7 +34103,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B4" s="30">
         <v>44396</v>
@@ -34118,7 +34118,7 @@
         <v>4689.05</v>
       </c>
       <c r="H4" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I4" t="s" s="32">
         <v>1840</v>
@@ -34181,7 +34181,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G7" s="53">
         <v>21601.8</v>
@@ -34393,7 +34393,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="51">
         <v>1856.49</v>
@@ -35831,8 +35831,8 @@
       <c r="F44" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G44" s="39">
-        <v>14423.36</v>
+      <c r="G44" s="33">
+        <v>2463.37</v>
       </c>
       <c r="H44" t="s" s="38">
         <v>316</v>
@@ -35842,15 +35842,27 @@
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
+      <c r="A45" t="s" s="35">
+        <v>318</v>
+      </c>
+      <c r="B45" s="36">
+        <v>44868</v>
+      </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
+      <c r="F45" t="s" s="38">
+        <v>96</v>
+      </c>
+      <c r="G45" s="33">
+        <v>11959.99</v>
+      </c>
+      <c r="H45" t="s" s="38">
+        <v>316</v>
+      </c>
+      <c r="I45" t="s" s="38">
+        <v>317</v>
+      </c>
     </row>
     <row r="46" ht="32.05" customHeight="1">
       <c r="A46" t="s" s="29">
@@ -35869,10 +35881,10 @@
         <v>20571.94</v>
       </c>
       <c r="H46" t="s" s="32">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I46" t="s" s="32">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" ht="32.05" customHeight="1">
@@ -35892,15 +35904,15 @@
         <v>44369.73</v>
       </c>
       <c r="H47" t="s" s="32">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I47" t="s" s="32">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" ht="32.05" customHeight="1">
       <c r="A48" t="s" s="29">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B48" s="30">
         <v>44872</v>
@@ -35915,15 +35927,15 @@
         <v>1802.06</v>
       </c>
       <c r="H48" t="s" s="32">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I48" t="s" s="32">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" ht="32.05" customHeight="1">
       <c r="A49" t="s" s="29">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B49" s="30">
         <v>44872</v>
@@ -35938,15 +35950,15 @@
         <v>1802.06</v>
       </c>
       <c r="H49" t="s" s="32">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I49" t="s" s="32">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" ht="32.05" customHeight="1">
       <c r="A50" t="s" s="29">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B50" s="30">
         <v>44872</v>
@@ -35961,15 +35973,15 @@
         <v>2016.99</v>
       </c>
       <c r="H50" t="s" s="32">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I50" t="s" s="32">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" ht="32.05" customHeight="1">
       <c r="A51" t="s" s="29">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B51" s="30">
         <v>44872</v>
@@ -35984,15 +35996,15 @@
         <v>2016.99</v>
       </c>
       <c r="H51" t="s" s="32">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I51" t="s" s="32">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" ht="32.05" customHeight="1">
       <c r="A52" t="s" s="29">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B52" s="30">
         <v>44872</v>
@@ -36007,15 +36019,15 @@
         <v>2016.99</v>
       </c>
       <c r="H52" t="s" s="32">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I52" t="s" s="32">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" ht="32.05" customHeight="1">
       <c r="A53" t="s" s="29">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B53" s="30">
         <v>44872</v>
@@ -36024,21 +36036,21 @@
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
       <c r="F53" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G53" s="33">
         <v>2089.7</v>
       </c>
       <c r="H53" t="s" s="32">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I53" t="s" s="32">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" ht="32.05" customHeight="1">
       <c r="A54" t="s" s="29">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B54" s="30">
         <v>44872</v>
@@ -36047,21 +36059,21 @@
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
       <c r="F54" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G54" s="33">
         <v>2099.65</v>
       </c>
       <c r="H54" t="s" s="32">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I54" t="s" s="32">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" ht="32.05" customHeight="1">
       <c r="A55" t="s" s="29">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B55" s="30">
         <v>44872</v>
@@ -36076,15 +36088,15 @@
         <v>2116.19</v>
       </c>
       <c r="H55" t="s" s="32">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I55" t="s" s="32">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" ht="32.05" customHeight="1">
       <c r="A56" t="s" s="29">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B56" s="30">
         <v>44872</v>
@@ -36099,15 +36111,15 @@
         <v>2182.32</v>
       </c>
       <c r="H56" t="s" s="32">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I56" t="s" s="32">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" ht="32.05" customHeight="1">
       <c r="A57" t="s" s="29">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B57" s="30">
         <v>44872</v>
@@ -36122,15 +36134,15 @@
         <v>2182.32</v>
       </c>
       <c r="H57" t="s" s="32">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I57" t="s" s="32">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" ht="32.05" customHeight="1">
       <c r="A58" t="s" s="29">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B58" s="30">
         <v>44872</v>
@@ -36145,15 +36157,15 @@
         <v>2182.32</v>
       </c>
       <c r="H58" t="s" s="32">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I58" t="s" s="32">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B59" s="30">
         <v>44872</v>
@@ -36168,15 +36180,15 @@
         <v>2231.93</v>
       </c>
       <c r="H59" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I59" t="s" s="32">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" ht="32.05" customHeight="1">
       <c r="A60" t="s" s="29">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B60" s="30">
         <v>44872</v>
@@ -36191,15 +36203,15 @@
         <v>2446.84</v>
       </c>
       <c r="H60" t="s" s="32">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I60" t="s" s="32">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" ht="32.05" customHeight="1">
       <c r="A61" t="s" s="29">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B61" s="30">
         <v>44872</v>
@@ -36214,10 +36226,10 @@
         <v>2463.37</v>
       </c>
       <c r="H61" t="s" s="32">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I61" t="s" s="32">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" ht="32.05" customHeight="1">
@@ -36237,15 +36249,15 @@
         <v>4420.28</v>
       </c>
       <c r="H62" t="s" s="32">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I62" t="s" s="32">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63" ht="32.05" customHeight="1">
       <c r="A63" t="s" s="29">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B63" s="30">
         <v>44872</v>
@@ -36260,15 +36272,15 @@
         <v>4425.94</v>
       </c>
       <c r="H63" t="s" s="32">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I63" t="s" s="32">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" ht="32.05" customHeight="1">
       <c r="A64" t="s" s="29">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B64" s="30">
         <v>44872</v>
@@ -36283,15 +36295,15 @@
         <v>4568.84</v>
       </c>
       <c r="H64" t="s" s="32">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I64" t="s" s="32">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" ht="32.05" customHeight="1">
       <c r="A65" t="s" s="29">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B65" s="30">
         <v>44872</v>
@@ -36306,15 +36318,15 @@
         <v>4618.17</v>
       </c>
       <c r="H65" t="s" s="32">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I65" t="s" s="32">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" ht="32.05" customHeight="1">
       <c r="A66" t="s" s="29">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B66" s="30">
         <v>44872</v>
@@ -36329,15 +36341,15 @@
         <v>4665.66</v>
       </c>
       <c r="H66" t="s" s="32">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I66" t="s" s="32">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" ht="32.05" customHeight="1">
       <c r="A67" t="s" s="29">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B67" s="30">
         <v>44872</v>
@@ -36352,15 +36364,15 @@
         <v>4833.97</v>
       </c>
       <c r="H67" t="s" s="32">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I67" t="s" s="32">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" ht="32.05" customHeight="1">
       <c r="A68" t="s" s="29">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B68" s="30">
         <v>44872</v>
@@ -36375,10 +36387,10 @@
         <v>4922.63</v>
       </c>
       <c r="H68" t="s" s="32">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I68" t="s" s="32">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" ht="32.05" customHeight="1">
@@ -36398,15 +36410,15 @@
         <v>6057.42</v>
       </c>
       <c r="H69" t="s" s="32">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I69" t="s" s="32">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" ht="32.05" customHeight="1">
       <c r="A70" t="s" s="29">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B70" s="30">
         <v>44872</v>
@@ -36421,15 +36433,15 @@
         <v>6486.23</v>
       </c>
       <c r="H70" t="s" s="32">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I70" t="s" s="32">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" ht="32.05" customHeight="1">
       <c r="A71" t="s" s="29">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B71" s="30">
         <v>44872</v>
@@ -36444,10 +36456,10 @@
         <v>7027.67</v>
       </c>
       <c r="H71" t="s" s="32">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I71" t="s" s="32">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" ht="32.05" customHeight="1">
@@ -36470,7 +36482,7 @@
         <v>205</v>
       </c>
       <c r="I72" t="s" s="32">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" ht="32.05" customHeight="1">
@@ -36498,7 +36510,7 @@
     </row>
     <row r="74" ht="32.05" customHeight="1">
       <c r="A74" t="s" s="29">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B74" s="30">
         <v>44872</v>
@@ -36513,15 +36525,15 @@
         <v>7929.1</v>
       </c>
       <c r="H74" t="s" s="32">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I74" t="s" s="32">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" ht="32.05" customHeight="1">
       <c r="A75" t="s" s="29">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B75" s="30">
         <v>44872</v>
@@ -36536,15 +36548,15 @@
         <v>8515.719999999999</v>
       </c>
       <c r="H75" t="s" s="32">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I75" t="s" s="32">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="76" ht="32.05" customHeight="1">
       <c r="A76" t="s" s="29">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B76" s="30">
         <v>44872</v>
@@ -36559,15 +36571,15 @@
         <v>9197.709999999999</v>
       </c>
       <c r="H76" t="s" s="32">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I76" t="s" s="32">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="29">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B77" s="30">
         <v>44872</v>
@@ -36582,15 +36594,15 @@
         <v>9310.07</v>
       </c>
       <c r="H77" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I77" t="s" s="32">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="29">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B78" s="30">
         <v>44872</v>
@@ -36605,15 +36617,15 @@
         <v>10610.22</v>
       </c>
       <c r="H78" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I78" t="s" s="32">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" t="s" s="29">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B79" s="30">
         <v>44872</v>
@@ -36628,15 +36640,15 @@
         <v>13731</v>
       </c>
       <c r="H79" t="s" s="32">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I79" t="s" s="32">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" ht="32.05" customHeight="1">
       <c r="A80" t="s" s="29">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B80" s="30">
         <v>44872</v>
@@ -36651,10 +36663,10 @@
         <v>16054.7</v>
       </c>
       <c r="H80" t="s" s="32">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I80" t="s" s="32">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" ht="32.05" customHeight="1">
@@ -36674,15 +36686,15 @@
         <v>20755.12</v>
       </c>
       <c r="H81" t="s" s="32">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I81" t="s" s="32">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="29">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B82" s="30">
         <v>44872</v>
@@ -36697,15 +36709,15 @@
         <v>21873.69</v>
       </c>
       <c r="H82" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I82" t="s" s="32">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" ht="32.05" customHeight="1">
       <c r="A83" t="s" s="29">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B83" s="30">
         <v>44872</v>
@@ -36720,10 +36732,10 @@
         <v>31262.13</v>
       </c>
       <c r="H83" t="s" s="32">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I83" t="s" s="32">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84" ht="32.05" customHeight="1">
@@ -36743,10 +36755,10 @@
         <v>43662.39</v>
       </c>
       <c r="H84" t="s" s="32">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I84" t="s" s="32">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -36811,7 +36823,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" t="s" s="27">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G2" s="60">
         <v>2413.57</v>
@@ -36834,7 +36846,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="51">
         <v>2445.99</v>
@@ -37437,7 +37449,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G20" s="53">
         <v>1805</v>
@@ -37451,7 +37463,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B21" s="30">
         <v>44382</v>
@@ -37468,7 +37480,7 @@
       <c r="H21" t="s" s="32">
         <v>676</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -37483,7 +37495,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
       <c r="F22" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G22" s="51">
         <v>2267.36</v>
@@ -37575,7 +37587,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G26" s="51">
         <v>2221.71</v>
@@ -37598,7 +37610,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G27" s="51">
         <v>2221.71</v>
@@ -37621,7 +37633,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="F28" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G28" s="51">
         <v>2236.92</v>
@@ -37644,7 +37656,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
       <c r="F29" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G29" s="51">
         <v>22816.14</v>
@@ -37704,7 +37716,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B32" s="30">
         <v>44384</v>
@@ -37719,7 +37731,7 @@
         <v>2157.26</v>
       </c>
       <c r="H32" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I32" t="s" s="32">
         <v>1889</v>
@@ -37851,7 +37863,7 @@
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
       <c r="F38" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G38" s="51">
         <v>2267.36</v>
@@ -37874,7 +37886,7 @@
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G39" s="51">
         <v>2267.36</v>
@@ -37897,7 +37909,7 @@
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
       <c r="F40" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G40" s="51">
         <v>2267.36</v>
@@ -38201,7 +38213,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G6" s="33">
         <v>1976.21</v>
@@ -38224,7 +38236,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G7" s="33">
         <v>2170.59</v>
@@ -38339,7 +38351,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
       <c r="F12" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G12" s="33">
         <v>10493.07</v>
@@ -38574,7 +38586,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G7" s="33">
         <v>1976.21</v>
@@ -38588,7 +38600,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="29">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B8" s="30">
         <v>44354</v>
@@ -38611,7 +38623,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="29">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B9" s="30">
         <v>44354</v>
@@ -38626,7 +38638,7 @@
         <v>4303.92</v>
       </c>
       <c r="H9" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I9" t="s" s="32">
         <v>1920</v>
@@ -38680,7 +38692,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="29">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B12" s="30">
         <v>44354</v>
@@ -38695,7 +38707,7 @@
         <v>4858.22</v>
       </c>
       <c r="H12" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I12" t="s" s="32">
         <v>1922</v>
@@ -38749,7 +38761,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="29">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B15" s="30">
         <v>44354</v>
@@ -38764,7 +38776,7 @@
         <v>16491.35</v>
       </c>
       <c r="H15" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I15" t="s" s="32">
         <v>1924</v>
@@ -38873,7 +38885,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G20" s="33">
         <v>12068.93</v>
@@ -38956,7 +38968,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B24" s="30">
         <v>44358</v>
@@ -38971,7 +38983,7 @@
         <v>4539.91</v>
       </c>
       <c r="H24" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I24" t="s" s="32">
         <v>1931</v>
@@ -39103,7 +39115,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G30" s="33">
         <v>4576.87</v>
@@ -39163,7 +39175,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B33" s="30">
         <v>44363</v>
@@ -39178,7 +39190,7 @@
         <v>2186.79</v>
       </c>
       <c r="H33" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I33" t="s" s="32">
         <v>1941</v>
@@ -39232,7 +39244,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B36" s="30">
         <v>44364</v>
@@ -39247,7 +39259,7 @@
         <v>26582.86</v>
       </c>
       <c r="H36" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I36" t="s" s="32">
         <v>1944</v>
@@ -39431,7 +39443,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="133">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B10" s="129">
         <v>44350</v>
@@ -39863,7 +39875,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="133">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B13" s="129">
         <v>44347</v>
@@ -40391,7 +40403,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="133">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B28" s="129">
         <v>44330</v>
@@ -41143,7 +41155,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="128">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B17" s="129">
         <v>44320</v>
@@ -41275,16 +41287,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.35156" style="40" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="40" customWidth="1"/>
-    <col min="3" max="3" width="4.97656" style="40" customWidth="1"/>
-    <col min="4" max="4" width="5.0625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="3.57031" style="40" customWidth="1"/>
-    <col min="6" max="6" width="16" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="40" customWidth="1"/>
-    <col min="8" max="8" width="102.172" style="40" customWidth="1"/>
-    <col min="9" max="9" width="143.672" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="40" customWidth="1"/>
+    <col min="1" max="1" width="5.35156" style="39" customWidth="1"/>
+    <col min="2" max="2" width="11.3516" style="39" customWidth="1"/>
+    <col min="3" max="3" width="4.97656" style="39" customWidth="1"/>
+    <col min="4" max="4" width="5.0625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="3.57031" style="39" customWidth="1"/>
+    <col min="6" max="6" width="16" style="39" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="39" customWidth="1"/>
+    <col min="8" max="8" width="102.172" style="39" customWidth="1"/>
+    <col min="9" max="9" width="143.672" style="39" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -41306,7 +41318,7 @@
     </row>
     <row r="2" ht="32.25" customHeight="1">
       <c r="A2" t="s" s="24">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B2" s="25">
         <v>44832</v>
@@ -41321,10 +41333,10 @@
         <v>7251.78</v>
       </c>
       <c r="H2" t="s" s="27">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I2" t="s" s="27">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
@@ -41338,7 +41350,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="33">
         <v>2336.52</v>
@@ -41347,12 +41359,12 @@
         <v>218</v>
       </c>
       <c r="I3" t="s" s="32">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B4" s="30">
         <v>44833</v>
@@ -41367,15 +41379,15 @@
         <v>3233.23</v>
       </c>
       <c r="H4" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I4" t="s" s="32">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B5" s="30">
         <v>44833</v>
@@ -41390,10 +41402,10 @@
         <v>5667.62</v>
       </c>
       <c r="H5" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I5" t="s" s="32">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -41416,7 +41428,7 @@
         <v>261</v>
       </c>
       <c r="I6" t="s" s="32">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
@@ -41430,16 +41442,16 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G7" s="33">
         <v>650</v>
       </c>
       <c r="H7" t="s" s="32">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I7" t="s" s="32">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
@@ -41453,21 +41465,21 @@
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G8" s="33">
         <v>1400</v>
       </c>
       <c r="H8" t="s" s="32">
+        <v>431</v>
+      </c>
+      <c r="I8" t="s" s="32">
         <v>430</v>
-      </c>
-      <c r="I8" t="s" s="32">
-        <v>429</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B9" s="30">
         <v>44834</v>
@@ -41482,15 +41494,15 @@
         <v>2007.43</v>
       </c>
       <c r="H9" t="s" s="32">
-        <v>432</v>
-      </c>
-      <c r="I9" s="41">
+        <v>433</v>
+      </c>
+      <c r="I9" s="40">
         <v>3105</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="29">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B10" s="30">
         <v>44834</v>
@@ -41505,15 +41517,15 @@
         <v>6021.15</v>
       </c>
       <c r="H10" t="s" s="32">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I10" t="s" s="32">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B11" s="30">
         <v>44834</v>
@@ -41528,10 +41540,10 @@
         <v>28522.07</v>
       </c>
       <c r="H11" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I11" t="s" s="32">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" ht="32.05" customHeight="1">
@@ -41551,15 +41563,15 @@
         <v>5271.09</v>
       </c>
       <c r="H12" t="s" s="32">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I12" t="s" s="32">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B13" s="30">
         <v>44837</v>
@@ -41915,7 +41927,7 @@
       <c r="F28" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="41">
         <v>2451.71</v>
       </c>
       <c r="H28" t="s" s="38">
@@ -41938,7 +41950,7 @@
       <c r="F29" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G29" s="42">
+      <c r="G29" s="41">
         <v>13655.69</v>
       </c>
       <c r="H29" s="37"/>
@@ -42130,7 +42142,7 @@
     </row>
     <row r="38" ht="32.05" customHeight="1">
       <c r="A38" t="s" s="29">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B38" s="30">
         <v>44839</v>
@@ -42145,7 +42157,7 @@
         <v>2171.96</v>
       </c>
       <c r="H38" t="s" s="32">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I38" t="s" s="32">
         <v>479</v>
@@ -42214,7 +42226,7 @@
         <v>3400</v>
       </c>
       <c r="H41" t="s" s="32">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I41" t="s" s="32">
         <v>482</v>
@@ -42222,7 +42234,7 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B42" s="30">
         <v>44839</v>
@@ -42237,7 +42249,7 @@
         <v>6391.31</v>
       </c>
       <c r="H42" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I42" t="s" s="32">
         <v>483</v>
@@ -42323,7 +42335,7 @@
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
       <c r="F46" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G46" s="33">
         <v>4024.43</v>
@@ -42440,7 +42452,7 @@
     </row>
     <row r="4" ht="20.35" customHeight="1">
       <c r="A4" t="s" s="166">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B4" s="129">
         <v>44301</v>
@@ -42568,7 +42580,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="133">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B12" s="129">
         <v>44305</v>
@@ -42584,7 +42596,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="128">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B13" s="129">
         <v>44305</v>
@@ -42616,7 +42628,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="128">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B15" s="129">
         <v>44305</v>
@@ -42632,7 +42644,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="128">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B16" s="129">
         <v>44305</v>
@@ -42792,7 +42804,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="128">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B26" s="129">
         <v>44309</v>
@@ -42963,7 +42975,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="128">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B8" s="174">
         <v>44291</v>
@@ -43299,7 +43311,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="128">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B29" s="174">
         <v>44295</v>
@@ -43475,7 +43487,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="128">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B40" s="174">
         <v>44300</v>
@@ -43630,7 +43642,7 @@
     </row>
     <row r="7" ht="25.35" customHeight="1">
       <c r="A7" t="s" s="194">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B7" s="189">
         <v>44287</v>
@@ -43874,7 +43886,7 @@
     </row>
     <row r="2" ht="22.2" customHeight="1">
       <c r="A2" t="s" s="202">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B2" s="183">
         <v>44280</v>
@@ -44378,7 +44390,7 @@
     </row>
     <row r="14" ht="22" customHeight="1">
       <c r="A14" t="s" s="209">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B14" s="189">
         <v>44271</v>
@@ -44628,7 +44640,7 @@
     </row>
     <row r="4" ht="22.35" customHeight="1">
       <c r="A4" t="s" s="216">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B4" s="189">
         <v>44256</v>
@@ -44660,7 +44672,7 @@
     </row>
     <row r="6" ht="22.35" customHeight="1">
       <c r="A6" t="s" s="216">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B6" s="189">
         <v>44256</v>
@@ -44692,7 +44704,7 @@
     </row>
     <row r="8" ht="22.35" customHeight="1">
       <c r="A8" t="s" s="216">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B8" s="189">
         <v>44256</v>
@@ -44836,7 +44848,7 @@
     </row>
     <row r="17" ht="22.35" customHeight="1">
       <c r="A17" t="s" s="216">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B17" s="189">
         <v>44259</v>
@@ -45672,16 +45684,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.35156" style="43" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="43" customWidth="1"/>
-    <col min="3" max="3" width="4.97656" style="43" customWidth="1"/>
-    <col min="4" max="4" width="5.0625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="3.57031" style="43" customWidth="1"/>
-    <col min="6" max="6" width="16" style="43" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="43" customWidth="1"/>
-    <col min="8" max="8" width="102.172" style="43" customWidth="1"/>
-    <col min="9" max="9" width="143.672" style="43" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="43" customWidth="1"/>
+    <col min="1" max="1" width="5.35156" style="42" customWidth="1"/>
+    <col min="2" max="2" width="11.3516" style="42" customWidth="1"/>
+    <col min="3" max="3" width="4.97656" style="42" customWidth="1"/>
+    <col min="4" max="4" width="5.0625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="3.57031" style="42" customWidth="1"/>
+    <col min="6" max="6" width="16" style="42" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="42" customWidth="1"/>
+    <col min="8" max="8" width="102.172" style="42" customWidth="1"/>
+    <col min="9" max="9" width="143.672" style="42" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -45726,7 +45738,7 @@
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B3" s="30">
         <v>44813</v>
@@ -45741,9 +45753,9 @@
         <v>3961</v>
       </c>
       <c r="H3" t="s" s="32">
-        <v>432</v>
-      </c>
-      <c r="I3" s="41">
+        <v>433</v>
+      </c>
+      <c r="I3" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -45758,7 +45770,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G4" s="33">
         <v>4411.07</v>
@@ -46080,7 +46092,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G18" s="33">
         <v>4565.58</v>
@@ -46103,7 +46115,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G19" s="33">
         <v>4660.87</v>
@@ -46439,7 +46451,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B34" s="30">
         <v>44824</v>
@@ -47252,7 +47264,7 @@
     </row>
     <row r="20" ht="25.35" customHeight="1">
       <c r="A20" t="s" s="128">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B20" s="174">
         <v>44246</v>
@@ -47901,7 +47913,7 @@
     </row>
     <row r="24" ht="25.35" customHeight="1">
       <c r="A24" t="s" s="128">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B24" s="174">
         <v>44230</v>
@@ -48596,7 +48608,7 @@
     </row>
     <row r="4" ht="25.35" customHeight="1">
       <c r="A4" t="s" s="128">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B4" s="174">
         <v>43852</v>
@@ -49690,7 +49702,7 @@
     </row>
     <row r="10" ht="25.35" customHeight="1">
       <c r="A10" t="s" s="128">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B10" s="174">
         <v>44195</v>
@@ -49705,7 +49717,7 @@
     </row>
     <row r="11" ht="25.35" customHeight="1">
       <c r="A11" t="s" s="128">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B11" s="174">
         <v>44196</v>
@@ -49720,7 +49732,7 @@
     </row>
     <row r="12" ht="25.35" customHeight="1">
       <c r="A12" t="s" s="128">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B12" s="174">
         <v>44196</v>
@@ -49938,7 +49950,7 @@
     </row>
     <row r="8" ht="25.35" customHeight="1">
       <c r="A8" t="s" s="210">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B8" s="189">
         <v>44194</v>
@@ -49953,7 +49965,7 @@
     </row>
     <row r="9" ht="25.35" customHeight="1">
       <c r="A9" t="s" s="210">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B9" s="189">
         <v>44194</v>
@@ -50509,7 +50521,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="261">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B21" s="259">
         <v>44182</v>
@@ -50644,7 +50656,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="261">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B30" s="259">
         <v>44190</v>
@@ -50691,16 +50703,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.35156" style="44" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="44" customWidth="1"/>
-    <col min="3" max="3" width="4.97656" style="44" customWidth="1"/>
-    <col min="4" max="4" width="5.0625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="3.57031" style="44" customWidth="1"/>
-    <col min="6" max="6" width="16" style="44" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="44" customWidth="1"/>
-    <col min="8" max="8" width="102.172" style="44" customWidth="1"/>
-    <col min="9" max="9" width="143.672" style="44" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="44" customWidth="1"/>
+    <col min="1" max="1" width="5.35156" style="43" customWidth="1"/>
+    <col min="2" max="2" width="11.3516" style="43" customWidth="1"/>
+    <col min="3" max="3" width="4.97656" style="43" customWidth="1"/>
+    <col min="4" max="4" width="5.0625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="3.57031" style="43" customWidth="1"/>
+    <col min="6" max="6" width="16" style="43" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="43" customWidth="1"/>
+    <col min="8" max="8" width="102.172" style="43" customWidth="1"/>
+    <col min="9" max="9" width="143.672" style="43" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -50754,7 +50766,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G3" s="33">
         <v>2010</v>
@@ -50777,7 +50789,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G4" s="33">
         <v>4660.87</v>
@@ -50814,7 +50826,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B6" s="30">
         <v>44803</v>
@@ -50829,7 +50841,7 @@
         <v>3386.07</v>
       </c>
       <c r="H6" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I6" t="s" s="32">
         <v>601</v>
@@ -50846,7 +50858,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G7" s="33">
         <v>4282.48</v>
@@ -50855,7 +50867,7 @@
         <v>218</v>
       </c>
       <c r="I7" t="s" s="32">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
@@ -50975,7 +50987,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="29">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B13" s="30">
         <v>44803</v>
@@ -51099,7 +51111,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="F18" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G18" s="33">
         <v>2010</v>
@@ -51113,7 +51125,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="29">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B19" s="30">
         <v>44804</v>
@@ -51128,7 +51140,7 @@
         <v>6368.12</v>
       </c>
       <c r="H19" t="s" s="32">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I19" t="s" s="32">
         <v>621</v>
@@ -51366,7 +51378,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B30" s="30">
         <v>44806</v>
@@ -51381,7 +51393,7 @@
         <v>28775.65</v>
       </c>
       <c r="H30" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I30" t="s" s="32">
         <v>633</v>
@@ -51561,7 +51573,7 @@
       <c r="F38" t="s" s="38">
         <v>257</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="44">
         <v>6804.06</v>
       </c>
       <c r="H38" t="s" s="38">
@@ -51607,7 +51619,7 @@
       <c r="F40" t="s" s="38">
         <v>257</v>
       </c>
-      <c r="G40" s="39">
+      <c r="G40" s="44">
         <v>15291.8</v>
       </c>
       <c r="H40" t="s" s="38">
@@ -51969,7 +51981,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="100">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B9" s="101">
         <v>44120</v>
@@ -52014,7 +52026,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="100">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B12" s="101">
         <v>44120</v>
@@ -52134,7 +52146,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="100">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B20" s="101">
         <v>44120</v>
@@ -52592,7 +52604,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="269">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B23" s="101">
         <v>44145</v>
@@ -52799,7 +52811,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" t="s" s="27">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G2" s="28">
         <v>1930</v>
@@ -52822,7 +52834,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G3" s="33">
         <v>2295.88</v>
@@ -52831,7 +52843,7 @@
         <v>218</v>
       </c>
       <c r="I3" t="s" s="32">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" ht="32.05" customHeight="1">
@@ -52914,7 +52926,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G7" s="33">
         <v>4565.58</v>
@@ -53066,7 +53078,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B14" s="30">
         <v>44775</v>
@@ -53083,7 +53095,7 @@
       <c r="H14" t="s" s="32">
         <v>676</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -53227,7 +53239,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B21" s="30">
         <v>44775</v>
@@ -53242,7 +53254,7 @@
         <v>28679.2</v>
       </c>
       <c r="H21" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I21" t="s" s="32">
         <v>684</v>
@@ -53273,7 +53285,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="29">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B23" s="30">
         <v>44776</v>
@@ -53288,7 +53300,7 @@
         <v>7067.47</v>
       </c>
       <c r="H23" t="s" s="32">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I23" t="s" s="32">
         <v>687</v>
@@ -53342,7 +53354,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="29">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B26" s="30">
         <v>44777</v>
@@ -53357,7 +53369,7 @@
         <v>6609.84</v>
       </c>
       <c r="H26" t="s" s="32">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I26" t="s" s="32">
         <v>691</v>
@@ -53443,7 +53455,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G30" s="33">
         <v>2425.22</v>
@@ -53491,7 +53503,7 @@
       <c r="F32" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="44">
         <v>2409.07</v>
       </c>
       <c r="H32" t="s" s="38">
@@ -53512,7 +53524,7 @@
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="39">
+      <c r="G33" s="44">
         <v>10381.36</v>
       </c>
       <c r="H33" s="37"/>
@@ -53897,7 +53909,7 @@
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
       <c r="F50" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G50" s="33">
         <v>2765.08</v>
@@ -54118,7 +54130,7 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B60" s="30">
         <v>44791</v>
@@ -54133,7 +54145,7 @@
         <v>3313.58</v>
       </c>
       <c r="H60" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I60" t="s" s="32">
         <v>734</v>
@@ -54187,7 +54199,7 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B63" s="30">
         <v>44792</v>
@@ -54417,7 +54429,7 @@
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" t="s" s="29">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B73" s="30">
         <v>44795</v>
@@ -54432,7 +54444,7 @@
         <v>2409.07</v>
       </c>
       <c r="H73" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I73" t="s" s="32">
         <v>750</v>
@@ -54440,7 +54452,7 @@
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" t="s" s="29">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B74" s="30">
         <v>44795</v>
@@ -54455,7 +54467,7 @@
         <v>7913.31</v>
       </c>
       <c r="H74" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I74" t="s" s="32">
         <v>751</v>
@@ -54638,7 +54650,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" t="s" s="27">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G2" s="28">
         <v>4268.9</v>
@@ -54684,7 +54696,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G4" s="33">
         <v>2000</v>
@@ -54698,7 +54710,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="29">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B5" s="30">
         <v>44741</v>
@@ -54715,7 +54727,7 @@
       <c r="H5" t="s" s="32">
         <v>676</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="40">
         <v>3105</v>
       </c>
     </row>
@@ -54730,7 +54742,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G6" s="33">
         <v>2335.53</v>
@@ -54739,7 +54751,7 @@
         <v>218</v>
       </c>
       <c r="I6" t="s" s="32">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
@@ -54983,7 +54995,7 @@
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G17" s="33">
         <v>2435.57</v>
@@ -55066,7 +55078,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="29">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B21" s="30">
         <v>44742</v>
@@ -55081,7 +55093,7 @@
         <v>23834.16</v>
       </c>
       <c r="H21" t="s" s="32">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I21" t="s" s="32">
         <v>779</v>
@@ -55330,7 +55342,7 @@
       <c r="F32" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="44">
         <v>11033.02</v>
       </c>
       <c r="H32" t="s" s="38">
@@ -55353,7 +55365,7 @@
       <c r="F33" t="s" s="38">
         <v>96</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="44">
         <v>2420.66</v>
       </c>
       <c r="H33" t="s" s="38">
@@ -55374,7 +55386,7 @@
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" t="s" s="32">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G34" s="33">
         <v>16785.26</v>
@@ -55489,7 +55501,7 @@
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G39" s="33">
         <v>2467.11</v>
@@ -55756,7 +55768,7 @@
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="29">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" s="30">
         <v>44753</v>
@@ -55771,7 +55783,7 @@
         <v>6532.64</v>
       </c>
       <c r="H51" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I51" t="s" s="32">
         <v>812</v>
@@ -55802,7 +55814,7 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="29">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="30">
         <v>44753</v>
@@ -55817,7 +55829,7 @@
         <v>7373.95</v>
       </c>
       <c r="H53" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I53" t="s" s="32">
         <v>814</v>
@@ -55825,7 +55837,7 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="29">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B54" s="30">
         <v>44753</v>
@@ -55840,7 +55852,7 @@
         <v>23326.78</v>
       </c>
       <c r="H54" t="s" s="32">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I54" t="s" s="32">
         <v>815</v>
@@ -55997,7 +56009,7 @@
       <c r="F61" t="s" s="38">
         <v>113</v>
       </c>
-      <c r="G61" s="39">
+      <c r="G61" s="44">
         <v>16232.1</v>
       </c>
       <c r="H61" t="s" s="38">
@@ -56538,7 +56550,7 @@
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="29">
-        <v>440</v>
+        <v>318</v>
       </c>
       <c r="B85" s="30">
         <v>44762</v>
@@ -56768,7 +56780,7 @@
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="29">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B95" s="30">
         <v>44764</v>
@@ -56783,7 +56795,7 @@
         <v>3251.88</v>
       </c>
       <c r="H95" t="s" s="32">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I95" t="s" s="32">
         <v>857</v>
@@ -56814,7 +56826,7 @@
     </row>
     <row r="97" ht="32.05" customHeight="1">
       <c r="A97" t="s" s="29">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B97" s="30">
         <v>44767</v>
@@ -56846,7 +56858,7 @@
       <c r="D98" s="31"/>
       <c r="E98" s="31"/>
       <c r="F98" t="s" s="32">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G98" s="33">
         <v>2450.66</v>
